--- a/Data/Export/Common/官职.xlsx
+++ b/Data/Export/Common/官职.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project_tk\Data\Export\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A540A0C9-D415-475F-90F5-B4A1A0BB7EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C34493-B977-4EFA-A1FC-239877A8486D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="780" windowWidth="19830" windowHeight="13320" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7950" yWindow="1155" windowWidth="19830" windowHeight="13320" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Officials" sheetId="36" r:id="rId1"/>
@@ -63,12 +63,6 @@
     <t>功绩</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>str</t>
-  </si>
-  <si>
     <t>丞相</t>
   </si>
   <si>
@@ -575,6 +569,14 @@
   </si>
   <si>
     <t>80</t>
+  </si>
+  <si>
+    <t>i32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1055,7 +1057,7 @@
   <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1129,22 +1131,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -1162,32 +1164,32 @@
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>10</v>
+        <v>177</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>9</v>
+        <v>176</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>176</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5" s="2">
         <v>5000</v>
@@ -1204,10 +1206,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6" s="2">
         <v>6000</v>
@@ -1232,10 +1234,10 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D7" s="2">
         <v>6000</v>
@@ -1259,10 +1261,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D8" s="2">
         <v>6000</v>
@@ -1286,10 +1288,10 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D9" s="2">
         <v>6000</v>
@@ -1313,10 +1315,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D10" s="2">
         <v>6000</v>
@@ -1340,10 +1342,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D11" s="2">
         <v>6000</v>
@@ -1367,10 +1369,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D12" s="2">
         <v>6000</v>
@@ -1394,10 +1396,10 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D13" s="2">
         <v>6000</v>
@@ -1421,10 +1423,10 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D14" s="2">
         <v>7000</v>
@@ -1448,10 +1450,10 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D15" s="2">
         <v>7000</v>
@@ -1475,10 +1477,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D16" s="2">
         <v>7000</v>
@@ -1502,10 +1504,10 @@
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D17" s="2">
         <v>7000</v>
@@ -1529,10 +1531,10 @@
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D18" s="2">
         <v>6000</v>
@@ -1556,10 +1558,10 @@
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D19" s="2">
         <v>6000</v>
@@ -1583,10 +1585,10 @@
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D20" s="2">
         <v>6000</v>
@@ -1610,10 +1612,10 @@
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D21" s="2">
         <v>6000</v>
@@ -1637,10 +1639,10 @@
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B22" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D22" s="4">
         <v>8000</v>
@@ -1664,10 +1666,10 @@
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D23" s="4">
         <v>8000</v>
@@ -1691,10 +1693,10 @@
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D24" s="4">
         <v>8000</v>
@@ -1718,10 +1720,10 @@
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D25" s="4">
         <v>8000</v>
@@ -1745,10 +1747,10 @@
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B26" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D26" s="4">
         <v>7000</v>
@@ -1772,10 +1774,10 @@
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B27" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D27" s="4">
         <v>7000</v>
@@ -1799,10 +1801,10 @@
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B28" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D28" s="4">
         <v>7000</v>
@@ -1826,10 +1828,10 @@
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B29" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D29" s="4">
         <v>7000</v>
@@ -1853,10 +1855,10 @@
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B30" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D30" s="4">
         <v>9000</v>
@@ -1880,10 +1882,10 @@
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B31" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D31" s="4">
         <v>9000</v>
@@ -1907,10 +1909,10 @@
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B32" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D32" s="4">
         <v>9000</v>
@@ -1934,10 +1936,10 @@
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B33" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D33" s="4">
         <v>9000</v>
@@ -1961,10 +1963,10 @@
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B34" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D34" s="4">
         <v>8000</v>
@@ -1988,10 +1990,10 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B35" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D35" s="4">
         <v>8000</v>
@@ -2015,10 +2017,10 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B36" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D36" s="4">
         <v>8000</v>
@@ -2042,10 +2044,10 @@
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B37" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D37" s="4">
         <v>8000</v>
@@ -2069,10 +2071,10 @@
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B38" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D38" s="4">
         <v>10000</v>
@@ -2096,10 +2098,10 @@
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B39" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D39" s="4">
         <v>10000</v>
@@ -2123,10 +2125,10 @@
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B40" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D40" s="4">
         <v>10000</v>
@@ -2150,10 +2152,10 @@
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B41" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D41" s="4">
         <v>10000</v>
@@ -2177,10 +2179,10 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B42" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D42" s="4">
         <v>9000</v>
@@ -2204,10 +2206,10 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B43" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D43" s="4">
         <v>9000</v>
@@ -2231,10 +2233,10 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B44" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D44" s="4">
         <v>9000</v>
@@ -2258,10 +2260,10 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B45" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D45" s="4">
         <v>9000</v>
@@ -2285,10 +2287,10 @@
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B46" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D46" s="4">
         <v>11000</v>
@@ -2312,10 +2314,10 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B47" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D47" s="4">
         <v>11000</v>
@@ -2338,10 +2340,10 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B48" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D48" s="4">
         <v>11000</v>
@@ -2360,10 +2362,10 @@
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B49" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D49" s="4">
         <v>11000</v>
@@ -2382,10 +2384,10 @@
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B50" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D50" s="4">
         <v>10000</v>
@@ -2404,10 +2406,10 @@
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B51" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D51" s="4">
         <v>10000</v>
@@ -2426,10 +2428,10 @@
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B52" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D52" s="4">
         <v>10000</v>
@@ -2448,10 +2450,10 @@
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B53" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D53" s="4">
         <v>10000</v>
@@ -2470,10 +2472,10 @@
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B54" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D54" s="4">
         <v>12000</v>
@@ -2492,10 +2494,10 @@
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B55" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D55" s="4">
         <v>12000</v>
@@ -2514,10 +2516,10 @@
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B56" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D56" s="4">
         <v>12000</v>
@@ -2536,10 +2538,10 @@
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B57" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D57" s="4">
         <v>12000</v>
@@ -2558,10 +2560,10 @@
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B58" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D58" s="4">
         <v>11000</v>
@@ -2580,10 +2582,10 @@
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B59" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D59" s="4">
         <v>11000</v>
@@ -2602,10 +2604,10 @@
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B60" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D60" s="4">
         <v>11000</v>
@@ -2624,10 +2626,10 @@
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B61" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D61" s="4">
         <v>11000</v>
@@ -2646,10 +2648,10 @@
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B62" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D62" s="4">
         <v>13000</v>
@@ -2668,10 +2670,10 @@
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B63" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D63" s="4">
         <v>13000</v>
@@ -2690,10 +2692,10 @@
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B64" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D64" s="4">
         <v>13000</v>
@@ -2712,10 +2714,10 @@
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B65" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D65" s="4">
         <v>13000</v>
@@ -2734,10 +2736,10 @@
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B66" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D66" s="4">
         <v>12000</v>
@@ -2756,10 +2758,10 @@
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B67" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D67" s="4">
         <v>12000</v>
@@ -2778,10 +2780,10 @@
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B68" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D68" s="4">
         <v>12000</v>
@@ -2800,10 +2802,10 @@
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B69" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D69" s="4">
         <v>12000</v>
@@ -2822,10 +2824,10 @@
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B70" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D70" s="4">
         <v>14000</v>
@@ -2842,10 +2844,10 @@
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B71" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D71" s="4">
         <v>14000</v>
@@ -2862,10 +2864,10 @@
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B72" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D72" s="4">
         <v>14000</v>
@@ -2882,10 +2884,10 @@
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B73" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D73" s="4">
         <v>14000</v>
@@ -2902,10 +2904,10 @@
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B74" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D74" s="4">
         <v>13000</v>
@@ -2922,10 +2924,10 @@
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B75" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D75" s="4">
         <v>13000</v>
@@ -2942,10 +2944,10 @@
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B76" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D76" s="4">
         <v>13000</v>
@@ -2962,10 +2964,10 @@
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B77" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D77" s="4">
         <v>13000</v>
@@ -2982,10 +2984,10 @@
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B78" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D78" s="4">
         <v>15000</v>
@@ -3002,10 +3004,10 @@
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B79" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D79" s="4">
         <v>15000</v>
@@ -3022,10 +3024,10 @@
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B80" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D80" s="4">
         <v>15000</v>
@@ -3042,10 +3044,10 @@
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B81" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D81" s="4">
         <v>15000</v>
@@ -3062,10 +3064,10 @@
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B82" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D82" s="4">
         <v>15000</v>
@@ -3082,10 +3084,10 @@
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B83" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D83" s="4">
         <v>15000</v>
@@ -3102,10 +3104,10 @@
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B84" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D84" s="4">
         <v>15000</v>
@@ -3122,10 +3124,10 @@
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B85" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D85" s="4">
         <v>15000</v>
